--- a/data/first500valuesTellCo.xlsx
+++ b/data/first500valuesTellCo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwang\Documents\projects\10academy\week1\TellCoAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5885647E-6DF3-4E79-9BCB-6F94E587A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFAB76-63B5-4053-98BA-3977A3FB5580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="780" windowWidth="14670" windowHeight="8325" xr2:uid="{77A33F0D-D2DE-4C15-A4A1-1218ADFA4A76}"/>
+    <workbookView xWindow="21300" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{77A33F0D-D2DE-4C15-A4A1-1218ADFA4A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1245E-672B-4FB1-BFCC-4598B989D6A3}">
   <dimension ref="A1:BC500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W17" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2175,6 +2175,11 @@
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" customWidth="1"/>
+    <col min="31" max="31" width="38.140625" customWidth="1"/>
     <col min="48" max="48" width="23.28515625" customWidth="1"/>
     <col min="49" max="49" width="34" customWidth="1"/>
   </cols>
